--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$659</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2030,11 +2033,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2318,20 +2322,20 @@
   <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B659"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="10.76953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.31640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2403,7 +2407,7 @@
       <c r="A10" t="s">
         <v>499</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2443,7 +2447,7 @@
       <c r="A15" t="s">
         <v>500</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2483,7 +2487,7 @@
       <c r="A20" t="s">
         <v>501</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2499,7 +2503,7 @@
       <c r="A22" t="s">
         <v>502</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2539,7 +2543,7 @@
       <c r="A27" t="s">
         <v>503</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2643,7 +2647,7 @@
       <c r="A40" t="s">
         <v>504</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2667,7 +2671,7 @@
       <c r="A43" t="s">
         <v>505</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2699,7 +2703,7 @@
       <c r="A47" t="s">
         <v>506</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2707,7 +2711,7 @@
       <c r="A48" t="s">
         <v>507</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2715,7 +2719,7 @@
       <c r="A49" t="s">
         <v>508</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2723,7 +2727,7 @@
       <c r="A50" t="s">
         <v>509</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2747,7 +2751,7 @@
       <c r="A53" t="s">
         <v>406</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2755,7 +2759,7 @@
       <c r="A54" t="s">
         <v>510</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2771,7 +2775,7 @@
       <c r="A56" t="s">
         <v>511</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2939,7 +2943,7 @@
       <c r="A77" t="s">
         <v>512</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2955,7 +2959,7 @@
       <c r="A79" t="s">
         <v>513</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -2995,7 +2999,7 @@
       <c r="A84" t="s">
         <v>514</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3019,7 +3023,7 @@
       <c r="A87" t="s">
         <v>515</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3027,7 +3031,7 @@
       <c r="A88" t="s">
         <v>516</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3035,7 +3039,7 @@
       <c r="A89" t="s">
         <v>517</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3043,7 +3047,7 @@
       <c r="A90" t="s">
         <v>518</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3051,7 +3055,7 @@
       <c r="A91" t="s">
         <v>519</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3083,7 +3087,7 @@
       <c r="A95" t="s">
         <v>520</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3091,7 +3095,7 @@
       <c r="A96" t="s">
         <v>521</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3283,7 +3287,7 @@
       <c r="A120" t="s">
         <v>522</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3307,7 +3311,7 @@
       <c r="A123" t="s">
         <v>523</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3315,7 +3319,7 @@
       <c r="A124" t="s">
         <v>524</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3323,7 +3327,7 @@
       <c r="A125" t="s">
         <v>525</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3395,7 +3399,7 @@
       <c r="A134" t="s">
         <v>526</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3459,7 +3463,7 @@
       <c r="A142" t="s">
         <v>527</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3467,7 +3471,7 @@
       <c r="A143" t="s">
         <v>528</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3475,7 +3479,7 @@
       <c r="A144" t="s">
         <v>529</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3507,7 +3511,7 @@
       <c r="A148" t="s">
         <v>530</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3515,7 +3519,7 @@
       <c r="A149" t="s">
         <v>531</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3531,7 +3535,7 @@
       <c r="A151" t="s">
         <v>532</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3539,7 +3543,7 @@
       <c r="A152" t="s">
         <v>533</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3547,7 +3551,7 @@
       <c r="A153" t="s">
         <v>534</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3571,7 +3575,7 @@
       <c r="A156" t="s">
         <v>535</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3587,7 +3591,7 @@
       <c r="A158" t="s">
         <v>536</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3603,7 +3607,7 @@
       <c r="A160" t="s">
         <v>537</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3619,7 +3623,7 @@
       <c r="A162" t="s">
         <v>538</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3683,7 +3687,7 @@
       <c r="A170" t="s">
         <v>539</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3691,7 +3695,7 @@
       <c r="A171" t="s">
         <v>540</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3699,7 +3703,7 @@
       <c r="A172" t="s">
         <v>541</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3707,7 +3711,7 @@
       <c r="A173" t="s">
         <v>542</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3755,7 +3759,7 @@
       <c r="A179" t="s">
         <v>181</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3987,7 +3991,7 @@
       <c r="A208" t="s">
         <v>543</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -3995,7 +3999,7 @@
       <c r="A209" t="s">
         <v>544</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4003,7 +4007,7 @@
       <c r="A210" t="s">
         <v>545</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4027,7 +4031,7 @@
       <c r="A213" t="s">
         <v>546</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4083,7 +4087,7 @@
       <c r="A220" t="s">
         <v>547</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4139,7 +4143,7 @@
       <c r="A227" t="s">
         <v>548</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4203,7 +4207,7 @@
       <c r="A235" t="s">
         <v>549</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4251,7 +4255,7 @@
       <c r="A241" t="s">
         <v>550</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4283,7 +4287,7 @@
       <c r="A245" t="s">
         <v>551</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4307,7 +4311,7 @@
       <c r="A248" t="s">
         <v>552</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4427,7 +4431,7 @@
       <c r="A263" t="s">
         <v>553</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4435,7 +4439,7 @@
       <c r="A264" t="s">
         <v>554</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4443,7 +4447,7 @@
       <c r="A265" t="s">
         <v>555</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4451,7 +4455,7 @@
       <c r="A266" t="s">
         <v>556</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4459,7 +4463,7 @@
       <c r="A267" t="s">
         <v>557</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4515,7 +4519,7 @@
       <c r="A274" t="s">
         <v>558</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4523,7 +4527,7 @@
       <c r="A275" t="s">
         <v>559</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4539,7 +4543,7 @@
       <c r="A277" t="s">
         <v>560</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4547,7 +4551,7 @@
       <c r="A278" t="s">
         <v>561</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4555,7 +4559,7 @@
       <c r="A279" t="s">
         <v>562</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4571,7 +4575,7 @@
       <c r="A281" t="s">
         <v>563</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4611,7 +4615,7 @@
       <c r="A286" t="s">
         <v>564</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4627,7 +4631,7 @@
       <c r="A288" t="s">
         <v>565</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4731,7 +4735,7 @@
       <c r="A301" t="s">
         <v>566</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4763,7 +4767,7 @@
       <c r="A305" t="s">
         <v>567</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4779,7 +4783,7 @@
       <c r="A307" t="s">
         <v>568</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4851,7 +4855,7 @@
       <c r="A316" t="s">
         <v>569</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4875,7 +4879,7 @@
       <c r="A319" t="s">
         <v>570</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4883,7 +4887,7 @@
       <c r="A320" t="s">
         <v>571</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4907,7 +4911,7 @@
       <c r="A323" t="s">
         <v>572</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4915,7 +4919,7 @@
       <c r="A324" t="s">
         <v>573</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -4923,7 +4927,7 @@
       <c r="A325" t="s">
         <v>574</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5019,7 +5023,7 @@
       <c r="A337" t="s">
         <v>575</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5051,7 +5055,7 @@
       <c r="A341" t="s">
         <v>576</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5091,7 +5095,7 @@
       <c r="A346" t="s">
         <v>577</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5139,7 +5143,7 @@
       <c r="A352" t="s">
         <v>578</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5163,7 +5167,7 @@
       <c r="A355" t="s">
         <v>579</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5195,7 +5199,7 @@
       <c r="A359" t="s">
         <v>580</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5371,7 +5375,7 @@
       <c r="A381" t="s">
         <v>581</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5411,7 +5415,7 @@
       <c r="A386" t="s">
         <v>582</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5427,7 +5431,7 @@
       <c r="A388" t="s">
         <v>583</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5651,7 +5655,7 @@
       <c r="A416" t="s">
         <v>584</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5659,7 +5663,7 @@
       <c r="A417" t="s">
         <v>585</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5667,7 +5671,7 @@
       <c r="A418" t="s">
         <v>586</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5683,7 +5687,7 @@
       <c r="A420" t="s">
         <v>587</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5715,7 +5719,7 @@
       <c r="A424" t="s">
         <v>588</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5731,7 +5735,7 @@
       <c r="A426" t="s">
         <v>589</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5771,7 +5775,7 @@
       <c r="A431" t="s">
         <v>590</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5787,7 +5791,7 @@
       <c r="A433" t="s">
         <v>591</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5819,7 +5823,7 @@
       <c r="A437" t="s">
         <v>592</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5827,7 +5831,7 @@
       <c r="A438" t="s">
         <v>593</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5843,7 +5847,7 @@
       <c r="A440" t="s">
         <v>594</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5867,7 +5871,7 @@
       <c r="A443" t="s">
         <v>595</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5915,7 +5919,7 @@
       <c r="A449" t="s">
         <v>596</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5931,7 +5935,7 @@
       <c r="A451" t="s">
         <v>597</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -5955,7 +5959,7 @@
       <c r="A454" t="s">
         <v>598</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6051,7 +6055,7 @@
       <c r="A466" t="s">
         <v>599</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6115,7 +6119,7 @@
       <c r="A474" t="s">
         <v>600</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6139,7 +6143,7 @@
       <c r="A477" t="s">
         <v>601</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6147,7 +6151,7 @@
       <c r="A478" t="s">
         <v>602</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6163,7 +6167,7 @@
       <c r="A480" t="s">
         <v>603</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6171,7 +6175,7 @@
       <c r="A481" t="s">
         <v>604</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6179,7 +6183,7 @@
       <c r="A482" t="s">
         <v>605</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6211,7 +6215,7 @@
       <c r="A486" t="s">
         <v>606</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6219,7 +6223,7 @@
       <c r="A487" t="s">
         <v>610</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6243,7 +6247,7 @@
       <c r="A490" t="s">
         <v>609</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6251,7 +6255,7 @@
       <c r="A491" t="s">
         <v>608</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6275,7 +6279,7 @@
       <c r="A494" t="s">
         <v>607</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6291,7 +6295,7 @@
       <c r="A496" t="s">
         <v>611</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6323,7 +6327,7 @@
       <c r="A500" t="s">
         <v>612</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6371,7 +6375,7 @@
       <c r="A506" t="s">
         <v>613</v>
       </c>
-      <c r="B506">
+      <c r="B506" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6411,7 +6415,7 @@
       <c r="A511" t="s">
         <v>614</v>
       </c>
-      <c r="B511">
+      <c r="B511" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6419,7 +6423,7 @@
       <c r="A512" t="s">
         <v>615</v>
       </c>
-      <c r="B512">
+      <c r="B512" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6475,7 +6479,7 @@
       <c r="A519" t="s">
         <v>621</v>
       </c>
-      <c r="B519">
+      <c r="B519" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6523,7 +6527,7 @@
       <c r="A525" t="s">
         <v>616</v>
       </c>
-      <c r="B525">
+      <c r="B525" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6539,7 +6543,7 @@
       <c r="A527" t="s">
         <v>617</v>
       </c>
-      <c r="B527">
+      <c r="B527" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6563,7 +6567,7 @@
       <c r="A530" t="s">
         <v>618</v>
       </c>
-      <c r="B530">
+      <c r="B530" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6571,7 +6575,7 @@
       <c r="A531" t="s">
         <v>619</v>
       </c>
-      <c r="B531">
+      <c r="B531" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6635,7 +6639,7 @@
       <c r="A539" t="s">
         <v>620</v>
       </c>
-      <c r="B539">
+      <c r="B539" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6659,7 +6663,7 @@
       <c r="A542" t="s">
         <v>622</v>
       </c>
-      <c r="B542">
+      <c r="B542" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6667,7 +6671,7 @@
       <c r="A543" t="s">
         <v>623</v>
       </c>
-      <c r="B543">
+      <c r="B543" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6683,7 +6687,7 @@
       <c r="A545" t="s">
         <v>624</v>
       </c>
-      <c r="B545">
+      <c r="B545" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6707,7 +6711,7 @@
       <c r="A548" t="s">
         <v>625</v>
       </c>
-      <c r="B548">
+      <c r="B548" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6739,7 +6743,7 @@
       <c r="A552" t="s">
         <v>626</v>
       </c>
-      <c r="B552">
+      <c r="B552" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6747,7 +6751,7 @@
       <c r="A553" t="s">
         <v>627</v>
       </c>
-      <c r="B553">
+      <c r="B553" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6779,7 +6783,7 @@
       <c r="A557" t="s">
         <v>628</v>
       </c>
-      <c r="B557">
+      <c r="B557" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6819,7 +6823,7 @@
       <c r="A562" t="s">
         <v>629</v>
       </c>
-      <c r="B562">
+      <c r="B562" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6851,7 +6855,7 @@
       <c r="A566" t="s">
         <v>630</v>
       </c>
-      <c r="B566">
+      <c r="B566" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -6923,7 +6927,7 @@
       <c r="A575" t="s">
         <v>631</v>
       </c>
-      <c r="B575">
+      <c r="B575" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7011,7 +7015,7 @@
       <c r="A586" t="s">
         <v>632</v>
       </c>
-      <c r="B586">
+      <c r="B586" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7019,7 +7023,7 @@
       <c r="A587" t="s">
         <v>633</v>
       </c>
-      <c r="B587">
+      <c r="B587" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7051,7 +7055,7 @@
       <c r="A591" t="s">
         <v>634</v>
       </c>
-      <c r="B591">
+      <c r="B591" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7059,7 +7063,7 @@
       <c r="A592" t="s">
         <v>635</v>
       </c>
-      <c r="B592">
+      <c r="B592" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7067,7 +7071,7 @@
       <c r="A593" t="s">
         <v>636</v>
       </c>
-      <c r="B593">
+      <c r="B593" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7091,7 +7095,7 @@
       <c r="A596" t="s">
         <v>637</v>
       </c>
-      <c r="B596">
+      <c r="B596" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7099,7 +7103,7 @@
       <c r="A597" t="s">
         <v>638</v>
       </c>
-      <c r="B597">
+      <c r="B597" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7163,7 +7167,7 @@
       <c r="A605" t="s">
         <v>639</v>
       </c>
-      <c r="B605">
+      <c r="B605" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7171,7 +7175,7 @@
       <c r="A606" t="s">
         <v>640</v>
       </c>
-      <c r="B606">
+      <c r="B606" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7179,7 +7183,7 @@
       <c r="A607" t="s">
         <v>641</v>
       </c>
-      <c r="B607">
+      <c r="B607" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7219,7 +7223,7 @@
       <c r="A612" t="s">
         <v>642</v>
       </c>
-      <c r="B612">
+      <c r="B612" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7227,7 +7231,7 @@
       <c r="A613" t="s">
         <v>643</v>
       </c>
-      <c r="B613">
+      <c r="B613" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7251,7 +7255,7 @@
       <c r="A616" t="s">
         <v>644</v>
       </c>
-      <c r="B616">
+      <c r="B616" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7259,7 +7263,7 @@
       <c r="A617" t="s">
         <v>645</v>
       </c>
-      <c r="B617">
+      <c r="B617" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7339,7 +7343,7 @@
       <c r="A627" t="s">
         <v>653</v>
       </c>
-      <c r="B627">
+      <c r="B627" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7347,7 +7351,7 @@
       <c r="A628" t="s">
         <v>654</v>
       </c>
-      <c r="B628">
+      <c r="B628" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7403,7 +7407,7 @@
       <c r="A635" t="s">
         <v>646</v>
       </c>
-      <c r="B635">
+      <c r="B635" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7419,7 +7423,7 @@
       <c r="A637" t="s">
         <v>655</v>
       </c>
-      <c r="B637">
+      <c r="B637" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7443,7 +7447,7 @@
       <c r="A640" t="s">
         <v>651</v>
       </c>
-      <c r="B640">
+      <c r="B640" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7451,7 +7455,7 @@
       <c r="A641" t="s">
         <v>652</v>
       </c>
-      <c r="B641">
+      <c r="B641" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7475,7 +7479,7 @@
       <c r="A644" t="s">
         <v>656</v>
       </c>
-      <c r="B644">
+      <c r="B644" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7523,7 +7527,7 @@
       <c r="A650" t="s">
         <v>649</v>
       </c>
-      <c r="B650">
+      <c r="B650" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7531,7 +7535,7 @@
       <c r="A651" t="s">
         <v>650</v>
       </c>
-      <c r="B651">
+      <c r="B651" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7547,7 +7551,7 @@
       <c r="A653" t="s">
         <v>647</v>
       </c>
-      <c r="B653">
+      <c r="B653" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7555,7 +7559,7 @@
       <c r="A654" t="s">
         <v>648</v>
       </c>
-      <c r="B654">
+      <c r="B654" s="2">
         <v>-1001587382061</v>
       </c>
     </row>
@@ -7600,6 +7604,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B659"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>